--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>UserId</t>
   </si>
@@ -85,25 +85,55 @@
     <t>User@1234</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>WKD</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>KM</t>
+  </si>
+  <si>
+    <t>Cheque-Fail</t>
+  </si>
+  <si>
+    <t>node5</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>node3</t>
+  </si>
+  <si>
+    <t>node4</t>
+  </si>
+  <si>
+    <t>node6</t>
+  </si>
+  <si>
+    <t>node7</t>
+  </si>
+  <si>
+    <t>node8</t>
+  </si>
+  <si>
+    <t>node9</t>
+  </si>
+  <si>
+    <t>http://testpanvelmc.ptaxcollection.com:8080/Pages/Login.aspx</t>
+  </si>
+  <si>
+    <t>Testing properties for payment Baramati</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>22-1</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>50-1</t>
   </si>
 </sst>
 </file>
@@ -161,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,30 +212,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -253,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,34 +286,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,10 +642,10 @@
         <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5">
         <v>6</v>
@@ -695,151 +698,227 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6">
-        <v>105</v>
+      <c r="B11" s="14">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="A19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="User@1234"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\Web_Automation_Script\InputData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="8160"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>UserId</t>
   </si>
@@ -58,9 +62,6 @@
     <t>Payment mode</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t>Cheque-clear</t>
   </si>
   <si>
@@ -88,12 +89,6 @@
     <t>KM</t>
   </si>
   <si>
-    <t>Cheque-Fail</t>
-  </si>
-  <si>
-    <t>node5</t>
-  </si>
-  <si>
     <t>node1</t>
   </si>
   <si>
@@ -106,34 +101,28 @@
     <t>node4</t>
   </si>
   <si>
-    <t>node6</t>
-  </si>
-  <si>
-    <t>node7</t>
-  </si>
-  <si>
-    <t>node8</t>
-  </si>
-  <si>
-    <t>node9</t>
-  </si>
-  <si>
-    <t>http://testpanvelmc.ptaxcollection.com:8080/Pages/Login.aspx</t>
-  </si>
-  <si>
-    <t>Testing properties for payment Baramati</t>
-  </si>
-  <si>
-    <t>11-1</t>
-  </si>
-  <si>
-    <t>22-1</t>
-  </si>
-  <si>
-    <t>KL</t>
-  </si>
-  <si>
-    <t>50-1</t>
+    <t>Cheque-bounce</t>
+  </si>
+  <si>
+    <t>Cash+advance</t>
+  </si>
+  <si>
+    <t>WKD</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>http://testpcmc.ptaxcollection.com:8080/Pages/offlinePayment.aspx</t>
   </si>
 </sst>
 </file>
@@ -191,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,17 +213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -259,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,25 +270,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,16 +602,16 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5">
         <v>6</v>
@@ -662,10 +628,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -681,13 +647,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,11 +664,11 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
@@ -723,199 +689,200 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="11">
-        <v>10</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="11">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="14">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="11">
-        <v>10</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="User@1234"/>
+    <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sthapatya\eclipse-workspace\New_Web_Automation_Script\InputData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="8160"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>UserId</t>
   </si>
@@ -58,18 +62,9 @@
     <t>Payment mode</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Cheque-clear</t>
-  </si>
-  <si>
     <t>Card</t>
   </si>
   <si>
-    <t>advance</t>
-  </si>
-  <si>
     <t>PMC</t>
   </si>
   <si>
@@ -85,15 +80,6 @@
     <t>User@1234</t>
   </si>
   <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Cheque-Fail</t>
-  </si>
-  <si>
-    <t>node5</t>
-  </si>
-  <si>
     <t>node1</t>
   </si>
   <si>
@@ -106,34 +92,28 @@
     <t>node4</t>
   </si>
   <si>
-    <t>node6</t>
-  </si>
-  <si>
-    <t>node7</t>
-  </si>
-  <si>
-    <t>node8</t>
-  </si>
-  <si>
-    <t>node9</t>
-  </si>
-  <si>
-    <t>http://testpanvelmc.ptaxcollection.com:8080/Pages/Login.aspx</t>
-  </si>
-  <si>
-    <t>Testing properties for payment Baramati</t>
-  </si>
-  <si>
-    <t>11-1</t>
-  </si>
-  <si>
-    <t>22-1</t>
-  </si>
-  <si>
-    <t>KL</t>
-  </si>
-  <si>
-    <t>50-1</t>
+    <t>Cheque-bounce</t>
+  </si>
+  <si>
+    <t>Cheque-Clear</t>
+  </si>
+  <si>
+    <t>Cash+advance</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -191,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,26 +204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -259,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,25 +252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,14 +583,14 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
-        <v>123</v>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5">
         <v>6</v>
@@ -662,10 +607,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -681,13 +626,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,11 +643,11 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
@@ -723,202 +668,80 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11">
-        <v>10</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="11">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="14">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="11">
-        <v>10</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="User@1234"/>
-    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sthapatya\eclipse-workspace\New_Web_Automation_Script\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\Web_Automation_Script\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>UserId</t>
   </si>
@@ -104,16 +104,19 @@
     <t>BMC</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>99</t>
+    <t>131</t>
+  </si>
+  <si>
+    <t>TRG</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +584,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
@@ -668,13 +671,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -685,13 +688,13 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
@@ -708,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -719,13 +722,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>UserId</t>
   </si>
@@ -101,22 +101,19 @@
     <t>Cash+advance</t>
   </si>
   <si>
+    <t>13-7</t>
+  </si>
+  <si>
     <t>BMC</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>TRG</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
+    <t>76-6</t>
+  </si>
+  <si>
+    <t>68-2</t>
+  </si>
+  <si>
+    <t>840-5</t>
   </si>
 </sst>
 </file>
@@ -545,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,19 +581,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="7">
-        <v>123</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
         <v>2024</v>
@@ -671,10 +668,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>27</v>
@@ -688,13 +685,13 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
@@ -705,13 +702,13 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -722,13 +719,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="11">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>
@@ -736,6 +733,26 @@
       <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>UserId</t>
   </si>
@@ -101,19 +101,22 @@
     <t>Cash+advance</t>
   </si>
   <si>
-    <t>13-7</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>76-6</t>
-  </si>
-  <si>
-    <t>68-2</t>
-  </si>
-  <si>
-    <t>840-5</t>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>13-3</t>
+  </si>
+  <si>
+    <t>12-8</t>
+  </si>
+  <si>
+    <t>135-2</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,14 +586,14 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="B2" s="7">
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -668,13 +671,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -685,13 +688,13 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
@@ -702,10 +705,10 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>29</v>
@@ -719,13 +722,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\Web_Automation_Script\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sthapatya\eclipse-workspace\New_Web_Automation_Script\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>UserId</t>
   </si>
@@ -101,19 +101,25 @@
     <t>Cash+advance</t>
   </si>
   <si>
-    <t>13-7</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>76-6</t>
-  </si>
-  <si>
-    <t>68-2</t>
-  </si>
-  <si>
-    <t>840-5</t>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>http://testpanvelmc.ptaxcollection.com:8080/Pages/Login.aspx</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>1-101</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>1-26</t>
+  </si>
+  <si>
+    <t>1-28</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,17 +589,17 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="B2" s="7">
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5">
         <v>2024</v>
@@ -668,13 +674,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -685,13 +691,13 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
@@ -702,13 +708,13 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -719,13 +725,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sthapatya\eclipse-workspace\New_Web_Automation_Script\InputData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>UserId</t>
   </si>
@@ -102,9 +98,6 @@
   </si>
   <si>
     <t>KM</t>
-  </si>
-  <si>
-    <t>http://testpanvelmc.ptaxcollection.com:8080/Pages/Login.aspx</t>
   </si>
   <si>
     <t>KH</t>
@@ -551,7 +544,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,11 +582,11 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
-        <v>123</v>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
@@ -674,13 +667,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -691,13 +684,13 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
@@ -708,13 +701,13 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -725,13 +718,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>
